--- a/tables/element_mod.xlsx
+++ b/tables/element_mod.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Steam Games\steamapps\common\RouletteHero\Mod\ModTool\Config\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD68420B-7EA8-438F-803C-793291AE10C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8546B6D9-73FC-42A7-9D89-933BBEA99021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="192">
   <si>
     <t>##type</t>
   </si>
@@ -952,10 +952,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5|4|3|2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Mod1</t>
   </si>
   <si>
@@ -1038,10 +1034,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>14,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：每有一个&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;的单位最大生命值&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1055,6 +1047,10 @@
   </si>
   <si>
     <t>员工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5|5|5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1492,9 +1488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1500,7 @@
     <col min="3" max="4" width="7" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="75.21875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="93.21875" style="14" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.21875" style="1" customWidth="1"/>
     <col min="10" max="11" width="9.77734375" style="1" customWidth="1"/>
@@ -1861,7 +1857,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>100001</v>
+        <v>10001</v>
       </c>
       <c r="C5" s="1">
         <v>-1</v>
@@ -1870,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5">
         <v>100001</v>
@@ -1891,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="1">
         <v>100001</v>
@@ -1923,7 +1919,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>100002</v>
+        <v>10002</v>
       </c>
       <c r="C6" s="1">
         <v>-1</v>
@@ -1932,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6">
         <v>100002</v>
@@ -1953,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>130</v>
@@ -1985,7 +1981,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>100003</v>
+        <v>10003</v>
       </c>
       <c r="C7" s="1">
         <v>-1</v>
@@ -1997,7 +1993,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7">
         <v>100003</v>
@@ -2015,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>130</v>
@@ -2047,7 +2043,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>100004</v>
+        <v>10004</v>
       </c>
       <c r="C8" s="1">
         <v>-1</v>
@@ -2059,7 +2055,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8">
         <v>100004</v>
@@ -2077,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>133</v>
@@ -2109,7 +2105,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>100005</v>
+        <v>10005</v>
       </c>
       <c r="C9" s="1">
         <v>-1</v>
@@ -2121,7 +2117,7 @@
         <v>86</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H9">
         <v>100005</v>
@@ -2139,10 +2135,10 @@
         <v>3</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q9" s="1">
         <v>100001</v>
@@ -2171,7 +2167,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>100006</v>
+        <v>10006</v>
       </c>
       <c r="C10" s="1">
         <v>-1</v>
@@ -2183,7 +2179,7 @@
         <v>87</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H10">
         <v>100006</v>
@@ -2192,7 +2188,7 @@
         <v>101006</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>111</v>
@@ -2201,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>132</v>
@@ -2220,7 +2216,7 @@
         <v>141</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y10">
         <v>60001</v>
@@ -2234,7 +2230,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>100007</v>
+        <v>10007</v>
       </c>
       <c r="C11" s="1">
         <v>-1</v>
@@ -2246,7 +2242,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11">
         <v>100007</v>
@@ -2264,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>131</v>
@@ -2296,7 +2292,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>100008</v>
+        <v>10008</v>
       </c>
       <c r="C12" s="1">
         <v>-1</v>
@@ -2308,7 +2304,7 @@
         <v>89</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12">
         <v>100008</v>
@@ -2326,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>131</v>
@@ -2358,7 +2354,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>100009</v>
+        <v>10009</v>
       </c>
       <c r="C13" s="1">
         <v>-1</v>
@@ -2370,7 +2366,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H13">
         <v>100009</v>
@@ -2388,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>134</v>
@@ -2409,7 +2405,7 @@
         <v>151</v>
       </c>
       <c r="X13" s="1">
-        <v>100003</v>
+        <v>10003</v>
       </c>
       <c r="Y13">
         <v>60001</v>
@@ -2423,7 +2419,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>100010</v>
+        <v>10010</v>
       </c>
       <c r="C14" s="1">
         <v>-1</v>
@@ -2435,7 +2431,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H14">
         <v>100010</v>
@@ -2453,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>133</v>
@@ -2468,7 +2464,7 @@
         <v>153</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="Y14">
         <v>60001</v>
@@ -2482,7 +2478,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>100011</v>
+        <v>10011</v>
       </c>
       <c r="C15" s="1">
         <v>-1</v>
@@ -2512,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>130</v>
@@ -2533,7 +2529,7 @@
         <v>139</v>
       </c>
       <c r="X15" s="1">
-        <v>100011</v>
+        <v>10011</v>
       </c>
       <c r="Y15">
         <v>60001</v>
@@ -2547,7 +2543,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>100012</v>
+        <v>10012</v>
       </c>
       <c r="C16" s="1">
         <v>-1</v>
@@ -2559,7 +2555,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16">
         <v>100012</v>
@@ -2568,7 +2564,7 @@
         <v>101012</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>117</v>
@@ -2577,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>130</v>
@@ -2609,7 +2605,7 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>100013</v>
+        <v>10013</v>
       </c>
       <c r="C17" s="1">
         <v>-1</v>
@@ -2621,7 +2617,7 @@
         <v>95</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H17">
         <v>100013</v>
@@ -2636,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>135</v>
@@ -2671,7 +2667,7 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>100014</v>
+        <v>10014</v>
       </c>
       <c r="C18" s="1">
         <v>-1</v>
@@ -2683,7 +2679,7 @@
         <v>94</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H18">
         <v>100014</v>
@@ -2698,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>132</v>
@@ -2736,7 +2732,7 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>100015</v>
+        <v>10015</v>
       </c>
       <c r="C19" s="1">
         <v>-1</v>
@@ -2748,7 +2744,7 @@
         <v>96</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H19">
         <v>100015</v>
@@ -2766,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>132</v>
@@ -2801,7 +2797,7 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>100016</v>
+        <v>10016</v>
       </c>
       <c r="C20" s="1">
         <v>-1</v>
@@ -2828,7 +2824,7 @@
         <v>4</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>134</v>
@@ -2846,7 +2842,7 @@
         <v>164</v>
       </c>
       <c r="X20" s="1">
-        <v>100017</v>
+        <v>10017</v>
       </c>
       <c r="Y20">
         <v>60001</v>
@@ -2860,7 +2856,7 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>100017</v>
+        <v>10017</v>
       </c>
       <c r="C21" s="1">
         <v>-1</v>
@@ -2872,7 +2868,7 @@
         <v>98</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H21">
         <v>100017</v>
@@ -2890,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>133</v>
@@ -2908,10 +2904,10 @@
         <v>165</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="X21" s="1">
-        <v>100016</v>
+        <v>10016</v>
       </c>
       <c r="Y21">
         <v>60001</v>
@@ -2925,7 +2921,7 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>100018</v>
+        <v>10018</v>
       </c>
       <c r="C22" s="1">
         <v>-1</v>
@@ -2952,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>131</v>
@@ -2972,7 +2968,7 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>100019</v>
+        <v>10019</v>
       </c>
       <c r="C23" s="1">
         <v>-1</v>
@@ -2999,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>136</v>
@@ -3014,7 +3010,7 @@
         <v>163</v>
       </c>
       <c r="X23" s="1">
-        <v>100019</v>
+        <v>10019</v>
       </c>
     </row>
   </sheetData>

--- a/tables/element_mod.xlsx
+++ b/tables/element_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8546B6D9-73FC-42A7-9D89-933BBEA99021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE004435-277B-43DD-BD01-1BC68E711979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="193">
   <si>
     <t>##type</t>
   </si>
@@ -931,13 +931,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ActionSumSpecialRefresh</t>
-  </si>
-  <si>
-    <t>14|11|8|6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionSmallRotateAndChange</t>
   </si>
   <si>
@@ -1010,14 +1003,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，获得一次特殊刷新机会。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位后，变为完全体。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Tired,Sum,Before</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1051,6 +1036,26 @@
   </si>
   <si>
     <t>5|5|5|5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSumAllAdd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,1|12,2|10,3|8,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位升级后，变为完全体。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1488,9 +1493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W30" sqref="W30"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1866,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H5">
         <v>100001</v>
@@ -1887,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>135</v>
@@ -1928,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H6">
         <v>100002</v>
@@ -1949,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>130</v>
@@ -1993,7 +1998,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H7">
         <v>100003</v>
@@ -2011,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>130</v>
@@ -2055,7 +2060,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H8">
         <v>100004</v>
@@ -2073,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>133</v>
@@ -2117,7 +2122,7 @@
         <v>86</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H9">
         <v>100005</v>
@@ -2135,10 +2140,10 @@
         <v>3</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q9" s="1">
         <v>100001</v>
@@ -2179,7 +2184,7 @@
         <v>87</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H10">
         <v>100006</v>
@@ -2188,7 +2193,7 @@
         <v>101006</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>111</v>
@@ -2197,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>132</v>
@@ -2216,7 +2221,7 @@
         <v>141</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y10">
         <v>60001</v>
@@ -2242,7 +2247,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H11">
         <v>100007</v>
@@ -2260,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>131</v>
@@ -2304,7 +2309,7 @@
         <v>89</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H12">
         <v>100008</v>
@@ -2322,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>131</v>
@@ -2366,7 +2371,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H13">
         <v>100009</v>
@@ -2384,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>134</v>
@@ -2431,7 +2436,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H14">
         <v>100010</v>
@@ -2449,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>133</v>
@@ -2464,7 +2469,7 @@
         <v>153</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Y14">
         <v>60001</v>
@@ -2508,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>130</v>
@@ -2555,7 +2560,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H16">
         <v>100012</v>
@@ -2564,7 +2569,7 @@
         <v>101012</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>117</v>
@@ -2573,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>130</v>
@@ -2617,7 +2622,7 @@
         <v>95</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H17">
         <v>100013</v>
@@ -2632,7 +2637,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>135</v>
@@ -2679,7 +2684,7 @@
         <v>94</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H18">
         <v>100014</v>
@@ -2694,7 +2699,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>132</v>
@@ -2744,7 +2749,7 @@
         <v>96</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H19">
         <v>100015</v>
@@ -2759,10 +2764,10 @@
         <v>120</v>
       </c>
       <c r="M19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>132</v>
@@ -2777,13 +2782,16 @@
         <v>6021</v>
       </c>
       <c r="U19" s="1">
-        <v>100012</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>160</v>
+        <v>75</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>161</v>
+        <v>191</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="Y19">
         <v>60001</v>
@@ -2821,10 +2829,10 @@
         <v>121</v>
       </c>
       <c r="M20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>134</v>
@@ -2836,10 +2844,10 @@
         <v>100013</v>
       </c>
       <c r="V20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="W20" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="X20" s="1">
         <v>10017</v>
@@ -2868,7 +2876,7 @@
         <v>98</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H21">
         <v>100017</v>
@@ -2886,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>133</v>
@@ -2901,7 +2909,7 @@
         <v>100015</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>154</v>
@@ -2948,7 +2956,7 @@
         <v>4</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>131</v>
@@ -2995,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>136</v>
@@ -3007,7 +3015,7 @@
         <v>100014</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X23" s="1">
         <v>10019</v>

--- a/tables/element_mod.xlsx
+++ b/tables/element_mod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE004435-277B-43DD-BD01-1BC68E711979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF89808-3C62-4CD5-94F3-6B16ECC114CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14472" yWindow="4920" windowWidth="10800" windowHeight="6840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,10 +869,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6,1|5,1|4,1|3,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionBlockOrAttackAdd</t>
   </si>
   <si>
@@ -987,10 +983,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每&lt;color=#BC3000&gt;旋转&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;次，若小于3级则升级。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：使前一个单位获得&lt;color=#BC3000&gt;邀为同道&lt;/color&gt;。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1056,6 +1048,14 @@
   </si>
   <si>
     <t>&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位升级后，变为完全体。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每&lt;color=#BC3000&gt;旋转&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;次，若未到达最大等级级则升级。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1|4,1|3,1|2,1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1493,9 +1493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="A20:XFD20"/>
+      <selection pane="bottomLeft" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5">
         <v>100001</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>135</v>
@@ -1933,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6">
         <v>100002</v>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>130</v>
@@ -1972,7 +1972,7 @@
         <v>141</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="Y6">
         <v>60001</v>
@@ -1998,7 +1998,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7">
         <v>100003</v>
@@ -2016,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>130</v>
@@ -2031,7 +2031,7 @@
         <v>100003</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>142</v>
@@ -2060,7 +2060,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8">
         <v>100004</v>
@@ -2078,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>133</v>
@@ -2093,10 +2093,10 @@
         <v>100005</v>
       </c>
       <c r="V8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="Y8">
         <v>60001</v>
@@ -2122,7 +2122,7 @@
         <v>86</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H9">
         <v>100005</v>
@@ -2140,10 +2140,10 @@
         <v>3</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q9" s="1">
         <v>100001</v>
@@ -2155,7 +2155,7 @@
         <v>100004</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>142</v>
@@ -2184,7 +2184,7 @@
         <v>87</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H10">
         <v>100006</v>
@@ -2193,7 +2193,7 @@
         <v>101006</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>111</v>
@@ -2202,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>132</v>
@@ -2221,7 +2221,7 @@
         <v>141</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y10">
         <v>60001</v>
@@ -2247,7 +2247,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H11">
         <v>100007</v>
@@ -2265,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>131</v>
@@ -2280,10 +2280,10 @@
         <v>100006</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y11">
         <v>60001</v>
@@ -2309,7 +2309,7 @@
         <v>89</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12">
         <v>100008</v>
@@ -2327,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>131</v>
@@ -2342,10 +2342,10 @@
         <v>100007</v>
       </c>
       <c r="V12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="Y12">
         <v>60001</v>
@@ -2371,7 +2371,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13">
         <v>100009</v>
@@ -2389,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>134</v>
@@ -2404,10 +2404,10 @@
         <v>100008</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X13" s="1">
         <v>10003</v>
@@ -2436,7 +2436,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="H14">
         <v>100010</v>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>133</v>
@@ -2466,10 +2466,10 @@
         <v>100009</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Y14">
         <v>60001</v>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>130</v>
@@ -2528,7 +2528,7 @@
         <v>100011</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>139</v>
@@ -2560,7 +2560,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H16">
         <v>100012</v>
@@ -2569,7 +2569,7 @@
         <v>101012</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>117</v>
@@ -2578,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>130</v>
@@ -2593,10 +2593,10 @@
         <v>100010</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y16">
         <v>60001</v>
@@ -2622,7 +2622,7 @@
         <v>95</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H17">
         <v>100013</v>
@@ -2637,7 +2637,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>135</v>
@@ -2652,10 +2652,10 @@
         <v>3</v>
       </c>
       <c r="V17" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="X17" s="1">
         <v>4</v>
@@ -2684,7 +2684,7 @@
         <v>94</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H18">
         <v>100014</v>
@@ -2699,7 +2699,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>132</v>
@@ -2717,10 +2717,10 @@
         <v>21</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X18" s="1">
         <v>3</v>
@@ -2749,7 +2749,7 @@
         <v>96</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H19">
         <v>100015</v>
@@ -2767,7 +2767,7 @@
         <v>4</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>132</v>
@@ -2785,13 +2785,13 @@
         <v>75</v>
       </c>
       <c r="V19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="W19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="W19" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="X19" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y19">
         <v>60001</v>
@@ -2832,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>134</v>
@@ -2844,10 +2844,10 @@
         <v>100013</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X20" s="1">
         <v>10017</v>
@@ -2876,7 +2876,7 @@
         <v>98</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H21">
         <v>100017</v>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>133</v>
@@ -2909,10 +2909,10 @@
         <v>100015</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X21" s="1">
         <v>10016</v>
@@ -2956,7 +2956,7 @@
         <v>4</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>131</v>
@@ -3003,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>136</v>
@@ -3015,7 +3015,7 @@
         <v>100014</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X23" s="1">
         <v>10019</v>

--- a/tables/element_mod.xlsx
+++ b/tables/element_mod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF89808-3C62-4CD5-94F3-6B16ECC114CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3E06E6-5E63-428A-9EAD-A6E2E6BB70A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14472" yWindow="4920" windowWidth="10800" windowHeight="6840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="196">
   <si>
     <t>##type</t>
   </si>
@@ -726,10 +726,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子，然后变为残躯。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>出售&lt;color=#008E11&gt;3&lt;/color&gt;级的自身时，使卡池中所有漆雕蝉获得等同于自身的基础属性。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -844,10 +840,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BattleCry,Near</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -876,10 +868,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ActionAddCacheAttackAndBlock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2|4|6|8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -927,16 +915,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ActionSmallRotateAndChange</t>
-  </si>
-  <si>
     <t>ActionSummonAndSplitAttr</t>
   </si>
   <si>
-    <t>3|4|5|6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionSumSpecialChange</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -967,10 +948,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每当单位&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;时，本回合攻击和护盾&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>每当单位&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;时，偷取敌人&lt;color=#008E11&gt;{0}&lt;/color&gt;攻击。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1031,22 +1008,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionSumAllAdd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,1|12,2|10,3|8,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位升级后，变为完全体。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1055,7 +1016,56 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5,1|4,1|3,1|2,1</t>
+    <t>获得金币时，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子，触发&lt;color=#008E11&gt;{1}&lt;/color&gt;次后&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;&lt;color=#008E11&gt;{2}&lt;/color&gt;回合。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1|5,1|4,1|3,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSmallRotateSumTire</t>
+  </si>
+  <si>
+    <t>1,2,1|1,3,1|1,4,1|1,5,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSumAllAddAndChange</t>
+  </si>
+  <si>
+    <t>12,1|10,2|8,3|6,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSmallRotate</t>
+  </si>
+  <si>
+    <t>10019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,10017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;，并死亡变为残躯。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1182,7 +1192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1205,6 +1215,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1491,11 +1506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1871,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H5">
         <v>100001</v>
@@ -1883,19 +1898,19 @@
         <v>101001</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="1">
         <v>100001</v>
@@ -1907,11 +1922,12 @@
         <v>100001</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="X5" s="16"/>
       <c r="Y5">
         <v>60001</v>
       </c>
@@ -1933,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H6">
         <v>100002</v>
@@ -1945,19 +1961,19 @@
         <v>101002</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="2">
         <v>21</v>
@@ -1969,11 +1985,12 @@
         <v>100002</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="X6" s="16"/>
       <c r="Y6">
         <v>60001</v>
       </c>
@@ -1998,7 +2015,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H7">
         <v>100003</v>
@@ -2007,19 +2024,19 @@
         <v>101003</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="1">
         <v>100001</v>
@@ -2031,11 +2048,12 @@
         <v>100003</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X7" s="16"/>
       <c r="Y7">
         <v>60001</v>
       </c>
@@ -2060,7 +2078,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H8">
         <v>100004</v>
@@ -2069,35 +2087,33 @@
         <v>101004</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="1">
         <v>2</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="1">
-        <v>100004</v>
-      </c>
-      <c r="T8" s="1">
-        <v>120002</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>100005</v>
+        <v>100016</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="X8" s="16"/>
       <c r="Y8">
         <v>60001</v>
       </c>
@@ -2122,7 +2138,7 @@
         <v>86</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H9">
         <v>100005</v>
@@ -2131,19 +2147,19 @@
         <v>101005</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="1">
         <v>3</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="1">
         <v>100001</v>
@@ -2155,11 +2171,12 @@
         <v>100004</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X9" s="16"/>
       <c r="Y9">
         <v>60001</v>
       </c>
@@ -2184,7 +2201,7 @@
         <v>87</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H10">
         <v>100006</v>
@@ -2193,16 +2210,16 @@
         <v>101006</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10" s="1">
         <v>3</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P10" s="15" t="s">
         <v>132</v>
@@ -2218,11 +2235,12 @@
         <v>100002</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X10" s="16"/>
       <c r="Y10">
         <v>60001</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H11">
         <v>100007</v>
@@ -2256,19 +2274,19 @@
         <v>101007</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M11" s="1">
         <v>4</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="1">
         <v>100004</v>
@@ -2280,11 +2298,12 @@
         <v>100006</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X11" s="16"/>
       <c r="Y11">
         <v>60001</v>
       </c>
@@ -2309,7 +2328,7 @@
         <v>89</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H12">
         <v>100008</v>
@@ -2318,19 +2337,19 @@
         <v>101008</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M12" s="1">
         <v>4</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q12" s="1">
         <v>100003</v>
@@ -2342,11 +2361,12 @@
         <v>100007</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>150</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="X12" s="16"/>
       <c r="Y12">
         <v>60001</v>
       </c>
@@ -2371,7 +2391,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H13">
         <v>100009</v>
@@ -2380,19 +2400,19 @@
         <v>101009</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="1">
         <v>5</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="2">
         <v>2</v>
@@ -2404,12 +2424,12 @@
         <v>100008</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="X13" s="1">
+        <v>147</v>
+      </c>
+      <c r="X13" s="16">
         <v>10003</v>
       </c>
       <c r="Y13">
@@ -2436,7 +2456,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H14">
         <v>100010</v>
@@ -2445,19 +2465,19 @@
         <v>101010</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="2">
         <v>21</v>
@@ -2466,11 +2486,12 @@
         <v>100009</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X14" s="16"/>
       <c r="Y14">
         <v>60001</v>
       </c>
@@ -2504,19 +2525,19 @@
         <v>101011</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="1">
         <v>100001</v>
@@ -2528,12 +2549,12 @@
         <v>100011</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X15" s="1">
+        <v>137</v>
+      </c>
+      <c r="X15" s="16">
         <v>10011</v>
       </c>
       <c r="Y15">
@@ -2560,7 +2581,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H16">
         <v>100012</v>
@@ -2569,19 +2590,19 @@
         <v>101012</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="1">
         <v>100001</v>
@@ -2593,11 +2614,12 @@
         <v>100010</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X16" s="16"/>
       <c r="Y16">
         <v>60001</v>
       </c>
@@ -2622,7 +2644,7 @@
         <v>95</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H17">
         <v>100013</v>
@@ -2631,16 +2653,16 @@
         <v>101013</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M17" s="1">
         <v>2</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="1">
         <v>18</v>
@@ -2652,12 +2674,12 @@
         <v>3</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="X17" s="1">
+        <v>143</v>
+      </c>
+      <c r="X17" s="16">
         <v>4</v>
       </c>
       <c r="Y17">
@@ -2684,7 +2706,7 @@
         <v>94</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H18">
         <v>100014</v>
@@ -2693,16 +2715,16 @@
         <v>101014</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M18" s="1">
         <v>3</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="1">
         <v>19</v>
@@ -2717,12 +2739,12 @@
         <v>21</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="X18" s="1">
+        <v>154</v>
+      </c>
+      <c r="X18" s="16">
         <v>3</v>
       </c>
       <c r="Y18">
@@ -2737,7 +2759,7 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>10015</v>
+        <v>10019</v>
       </c>
       <c r="C19" s="1">
         <v>-1</v>
@@ -2746,61 +2768,40 @@
         <v>1</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="H19">
-        <v>100015</v>
+        <v>100019</v>
       </c>
       <c r="I19" s="1">
-        <v>101015</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>128</v>
+        <v>101019</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="1">
-        <v>3</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T19" s="2">
-        <v>6021</v>
+        <v>1</v>
       </c>
       <c r="U19" s="1">
-        <v>75</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y19">
-        <v>60001</v>
-      </c>
-      <c r="Z19">
-        <v>20001</v>
-      </c>
-      <c r="AA19">
-        <v>28</v>
+        <v>100014</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X19" s="17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -2817,7 +2818,7 @@
         <v>97</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="H20">
         <v>100016</v>
@@ -2825,32 +2826,41 @@
       <c r="I20" s="1">
         <v>101016</v>
       </c>
+      <c r="J20" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="L20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="1">
         <v>3</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>1</v>
+      <c r="S20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T20" s="2">
+        <v>6021</v>
       </c>
       <c r="U20" s="1">
-        <v>100013</v>
+        <v>100017</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="X20" s="1">
-        <v>10017</v>
+        <v>189</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="Y20">
         <v>60001</v>
@@ -2876,7 +2886,7 @@
         <v>98</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H21">
         <v>100017</v>
@@ -2885,19 +2895,19 @@
         <v>101017</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="1">
         <v>18</v>
@@ -2909,12 +2919,12 @@
         <v>100015</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="X21" s="1">
+        <v>150</v>
+      </c>
+      <c r="X21" s="16">
         <v>10016</v>
       </c>
       <c r="Y21">
@@ -2941,7 +2951,7 @@
         <v>99</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H22">
         <v>100018</v>
@@ -2950,20 +2960,21 @@
         <v>101018</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M22" s="1">
         <v>4</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="X22" s="16"/>
       <c r="Y22">
         <v>60001</v>
       </c>
@@ -2976,7 +2987,7 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>10019</v>
+        <v>10015</v>
       </c>
       <c r="C23" s="1">
         <v>-1</v>
@@ -2985,41 +2996,64 @@
         <v>1</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="H23">
-        <v>100019</v>
+        <v>100015</v>
       </c>
       <c r="I23" s="1">
-        <v>101019</v>
-      </c>
+        <v>101015</v>
+      </c>
+      <c r="J23" s="11"/>
       <c r="L23" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M23" s="1">
         <v>5</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>136</v>
+        <v>160</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1">
-        <v>100014</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="X23" s="1">
-        <v>10019</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="11">
+        <v>39</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="X23" s="17"/>
+      <c r="Y23">
+        <v>60001</v>
+      </c>
+      <c r="Z23">
+        <v>20001</v>
+      </c>
+      <c r="AA23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="P26" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AD4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/tables/element_mod.xlsx
+++ b/tables/element_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3E06E6-5E63-428A-9EAD-A6E2E6BB70A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1243F9AA-E386-4F43-B714-4769DA4F4637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
   <si>
     <t>##type</t>
   </si>
@@ -730,10 +730,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，拆分出一个1级的复制。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BattleCry,Tired</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -788,284 +784,314 @@
     <t>element_16</t>
   </si>
   <si>
+    <t>element_18</t>
+  </si>
+  <si>
+    <t>element_19</t>
+  </si>
+  <si>
+    <t>Tired</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleCry</t>
+  </si>
+  <si>
+    <t>BattleCry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tired,Sum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleCry,Near</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,-1</t>
+  </si>
+  <si>
+    <t>0|0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionTire</t>
+  </si>
+  <si>
+    <t>ActionSumTire</t>
+  </si>
+  <si>
+    <t>2|2|2|2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionBlockOrAttackAdd</t>
+  </si>
+  <si>
+    <t>1|1|1|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|4|6|8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionTiredCountHeal</t>
+  </si>
+  <si>
+    <t>ActionSelfStealAttackFromEnemy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionStealHalfAttrsFromRandomTired</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSummonPrepare</t>
+  </si>
+  <si>
+    <t>ActionSumSelfUpdgrade</t>
+  </si>
+  <si>
+    <t>ActionSummonPrepareNoBattleCry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionInvite</t>
+  </si>
+  <si>
+    <t>ActionPlayerAdd</t>
+  </si>
+  <si>
+    <t>3|6|9|12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSelfAdd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSumSpecialChange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mod1</t>
+  </si>
+  <si>
+    <t>Mod1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mod2</t>
+  </si>
+  <si>
+    <t>Mod2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;回合。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每&lt;color=#BC3000&gt;旋转&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;次，&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;&lt;color=#008E11&gt;{1}&lt;/color&gt;回合。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：使相邻的单位攻击或护盾&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当单位&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;时，偷取敌人&lt;color=#008E11&gt;{0}&lt;/color&gt;攻击。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，吸取随机&lt;color=#008E11&gt;{0}&lt;/color&gt;个&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;单位一半基础属性。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，在准备区召唤&lt;color=#008E11&gt;{0}&lt;/color&gt;个工头。&lt;color=#BC3000&gt;战吼&lt;/color&gt;触发&lt;color=#008E11&gt;2&lt;/color&gt;次。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：使前一个单位获得&lt;color=#BC3000&gt;邀为同道&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当单位升级时，玩家护盾&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售&lt;color=#008E11&gt;3&lt;/color&gt;级单位时，攻击&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tired,Sum,Before</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invited,BattleCry,Before</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1,1|3,1,1|2,1,1|1,1,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每出售&lt;color=#008E11&gt;{0}&lt;/color&gt;个单位时，使前一个单位&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;&lt;color=#008E11&gt;1&lt;/color&gt;回合。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：每有一个&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;的单位最大生命值&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>囚犯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5|5|5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位升级后，变为完全体。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每&lt;color=#BC3000&gt;旋转&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;次，若未到达最大等级级则升级。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币时，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子，触发&lt;color=#008E11&gt;{1}&lt;/color&gt;次后&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;&lt;color=#008E11&gt;{2}&lt;/color&gt;回合。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1|5,1|4,1|3,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSmallRotateSumTire</t>
+  </si>
+  <si>
+    <t>1,2,1|1,3,1|1,4,1|1,5,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSumAllAddAndChange</t>
+  </si>
+  <si>
+    <t>101,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSmallRotate</t>
+  </si>
+  <si>
+    <t>3,10017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;，并死亡变为残躯。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印的肢体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以与任意稀有度更低的单位合并并使其&lt;color=#BC3000&gt;升级&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，消耗&lt;color=#008E11&gt;1&lt;/color&gt;点耐久拆分出&lt;color=#008E11&gt;{0}&lt;/color&gt;个肢体。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|2|1|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1|12,2|12,3|12,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10020</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100005,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSummonAndSplit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>element_17</t>
-  </si>
-  <si>
-    <t>element_18</t>
-  </si>
-  <si>
-    <t>element_19</t>
-  </si>
-  <si>
-    <t>Tired</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleCry</t>
-  </si>
-  <si>
-    <t>BattleCry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tired,Sum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleCry,Near</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,-1</t>
-  </si>
-  <si>
-    <t>0|0|0|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionTire</t>
-  </si>
-  <si>
-    <t>ActionSumTire</t>
-  </si>
-  <si>
-    <t>2|2|2|2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionBlockOrAttackAdd</t>
-  </si>
-  <si>
-    <t>1|1|1|1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|4|6|8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionTiredCountHeal</t>
-  </si>
-  <si>
-    <t>ActionSelfStealAttackFromEnemy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionStealHalfAttrsFromRandomTired</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3|4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionSummonPrepare</t>
-  </si>
-  <si>
-    <t>ActionSumSelfUpdgrade</t>
-  </si>
-  <si>
-    <t>3|3|3|3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionSummonPrepareNoBattleCry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionInvite</t>
-  </si>
-  <si>
-    <t>ActionPlayerAdd</t>
-  </si>
-  <si>
-    <t>3|6|9|12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionSelfAdd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionSummonAndSplitAttr</t>
-  </si>
-  <si>
-    <t>ActionSumSpecialChange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mod1</t>
-  </si>
-  <si>
-    <t>Mod1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mod2</t>
-  </si>
-  <si>
-    <t>Mod2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;回合。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每&lt;color=#BC3000&gt;旋转&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;次，&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;&lt;color=#008E11&gt;{1}&lt;/color&gt;回合。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：使相邻的单位攻击或护盾&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当单位&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;时，偷取敌人&lt;color=#008E11&gt;{0}&lt;/color&gt;攻击。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，吸取随机&lt;color=#008E11&gt;{0}&lt;/color&gt;个&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;单位一半基础属性。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，在准备区召唤&lt;color=#008E11&gt;{0}&lt;/color&gt;个工头。&lt;color=#BC3000&gt;战吼&lt;/color&gt;触发&lt;color=#008E11&gt;2&lt;/color&gt;次。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：使前一个单位获得&lt;color=#BC3000&gt;邀为同道&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当单位升级时，玩家护盾&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售&lt;color=#008E11&gt;3&lt;/color&gt;级单位时，攻击&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tired,Sum,Before</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invited,BattleCry,Before</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1,1|3,1,1|2,1,1|1,1,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每出售&lt;color=#008E11&gt;{0}&lt;/color&gt;个单位时，使前一个单位&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;&lt;color=#008E11&gt;1&lt;/color&gt;回合。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#BC3000&gt;战吼&lt;/color&gt;：每有一个&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;的单位最大生命值&lt;color=#008E11&gt;+{0}&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>囚犯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|5|5|5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#008E11&gt;{0}&lt;/color&gt;次单位升级后，变为完全体。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每&lt;color=#BC3000&gt;旋转&lt;/color&gt;&lt;color=#008E11&gt;{0}&lt;/color&gt;次，若未到达最大等级级则升级。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得金币时，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#BC3000&gt;选中时&lt;/color&gt;，再次旋转并选中&lt;color=#008E11&gt;{0}&lt;/color&gt;个格子，触发&lt;color=#008E11&gt;{1}&lt;/color&gt;次后&lt;color=#BC3000&gt;摸鱼&lt;/color&gt;&lt;color=#008E11&gt;{2}&lt;/color&gt;回合。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,1|5,1|4,1|3,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionSmallRotateSumTire</t>
-  </si>
-  <si>
-    <t>1,2,1|1,3,1|1,4,1|1,5,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionSumAllAddAndChange</t>
-  </si>
-  <si>
-    <t>12,1|10,2|8,3|6,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionSmallRotate</t>
-  </si>
-  <si>
-    <t>10019</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,10017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;，并死亡变为残躯。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1506,11 +1532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
+      <selection pane="bottomLeft" activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1886,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H5">
         <v>100001</v>
@@ -1898,19 +1924,19 @@
         <v>101001</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="1">
         <v>100001</v>
@@ -1922,20 +1948,20 @@
         <v>100001</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="X5" s="16"/>
       <c r="Y5">
-        <v>60001</v>
+        <v>60004</v>
       </c>
       <c r="Z5">
         <v>20001</v>
       </c>
       <c r="AA5">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1949,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H6">
         <v>100002</v>
@@ -1961,19 +1987,19 @@
         <v>101002</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="2">
         <v>21</v>
@@ -1985,20 +2011,20 @@
         <v>100002</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="X6" s="16"/>
       <c r="Y6">
-        <v>60001</v>
+        <v>60004</v>
       </c>
       <c r="Z6">
         <v>20001</v>
       </c>
       <c r="AA6">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -2015,7 +2041,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H7">
         <v>100003</v>
@@ -2024,19 +2050,19 @@
         <v>101003</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="1">
         <v>100001</v>
@@ -2048,20 +2074,20 @@
         <v>100003</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X7" s="16"/>
       <c r="Y7">
-        <v>60001</v>
+        <v>60004</v>
       </c>
       <c r="Z7">
         <v>20001</v>
       </c>
       <c r="AA7">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2078,7 +2104,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H8">
         <v>100004</v>
@@ -2087,19 +2113,19 @@
         <v>101004</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M8" s="1">
         <v>2</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="1">
         <v>1</v>
@@ -2108,20 +2134,20 @@
         <v>100016</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="X8" s="16"/>
       <c r="Y8">
-        <v>60001</v>
+        <v>60004</v>
       </c>
       <c r="Z8">
         <v>20001</v>
       </c>
       <c r="AA8">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2138,7 +2164,7 @@
         <v>86</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H9">
         <v>100005</v>
@@ -2147,19 +2173,19 @@
         <v>101005</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M9" s="1">
         <v>3</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="1">
         <v>100001</v>
@@ -2171,20 +2197,20 @@
         <v>100004</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X9" s="16"/>
       <c r="Y9">
-        <v>60001</v>
+        <v>60004</v>
       </c>
       <c r="Z9">
         <v>20001</v>
       </c>
       <c r="AA9">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2201,7 +2227,7 @@
         <v>87</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H10">
         <v>100006</v>
@@ -2210,19 +2236,19 @@
         <v>101006</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M10" s="1">
         <v>3</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="1">
         <v>19</v>
@@ -2235,20 +2261,20 @@
         <v>100002</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="X10" s="16"/>
       <c r="Y10">
-        <v>60001</v>
+        <v>60004</v>
       </c>
       <c r="Z10">
         <v>20001</v>
       </c>
       <c r="AA10">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2265,7 +2291,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H11">
         <v>100007</v>
@@ -2274,19 +2300,19 @@
         <v>101007</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11" s="1">
         <v>4</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="1">
         <v>100004</v>
@@ -2298,20 +2324,20 @@
         <v>100006</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X11" s="16"/>
       <c r="Y11">
-        <v>60001</v>
+        <v>60002</v>
       </c>
       <c r="Z11">
         <v>20001</v>
       </c>
       <c r="AA11">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2328,7 +2354,7 @@
         <v>89</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H12">
         <v>100008</v>
@@ -2337,19 +2363,19 @@
         <v>101008</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" s="1">
         <v>4</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q12" s="1">
         <v>100003</v>
@@ -2361,20 +2387,20 @@
         <v>100007</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="X12" s="16"/>
       <c r="Y12">
-        <v>60001</v>
+        <v>60002</v>
       </c>
       <c r="Z12">
         <v>20001</v>
       </c>
       <c r="AA12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2391,7 +2417,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H13">
         <v>100009</v>
@@ -2400,19 +2426,19 @@
         <v>101009</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M13" s="1">
         <v>5</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="2">
         <v>2</v>
@@ -2424,22 +2450,22 @@
         <v>100008</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="X13" s="16">
         <v>10003</v>
       </c>
       <c r="Y13">
-        <v>60001</v>
+        <v>205</v>
       </c>
       <c r="Z13">
         <v>20001</v>
       </c>
       <c r="AA13">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2456,7 +2482,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H14">
         <v>100010</v>
@@ -2465,19 +2491,19 @@
         <v>101010</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="2">
         <v>21</v>
@@ -2486,20 +2512,20 @@
         <v>100009</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="X14" s="16"/>
       <c r="Y14">
-        <v>60001</v>
+        <v>106</v>
       </c>
       <c r="Z14">
         <v>20001</v>
       </c>
       <c r="AA14">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -2525,19 +2551,19 @@
         <v>101011</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q15" s="1">
         <v>100001</v>
@@ -2549,16 +2575,16 @@
         <v>100011</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X15" s="16">
         <v>10011</v>
       </c>
       <c r="Y15">
-        <v>60001</v>
+        <v>200</v>
       </c>
       <c r="Z15">
         <v>20001</v>
@@ -2581,7 +2607,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H16">
         <v>100012</v>
@@ -2590,19 +2616,19 @@
         <v>101012</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="1">
         <v>100001</v>
@@ -2614,20 +2640,20 @@
         <v>100010</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X16" s="16"/>
       <c r="Y16">
-        <v>60001</v>
+        <v>106</v>
       </c>
       <c r="Z16">
         <v>20001</v>
       </c>
       <c r="AA16">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
@@ -2644,7 +2670,7 @@
         <v>95</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H17">
         <v>100013</v>
@@ -2653,16 +2679,16 @@
         <v>101013</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M17" s="1">
         <v>2</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="1">
         <v>18</v>
@@ -2674,22 +2700,22 @@
         <v>3</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X17" s="16">
         <v>4</v>
       </c>
       <c r="Y17">
-        <v>60001</v>
+        <v>205</v>
       </c>
       <c r="Z17">
         <v>20001</v>
       </c>
       <c r="AA17">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
@@ -2706,7 +2732,7 @@
         <v>94</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H18">
         <v>100014</v>
@@ -2715,16 +2741,16 @@
         <v>101014</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M18" s="1">
         <v>3</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="1">
         <v>19</v>
@@ -2739,22 +2765,22 @@
         <v>21</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X18" s="16">
         <v>3</v>
       </c>
       <c r="Y18">
-        <v>60001</v>
+        <v>203</v>
       </c>
       <c r="Z18">
         <v>20001</v>
       </c>
       <c r="AA18">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
@@ -2771,7 +2797,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="H19">
         <v>100019</v>
@@ -2780,16 +2806,16 @@
         <v>101019</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M19" s="1">
         <v>3</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="1">
         <v>1</v>
@@ -2797,11 +2823,23 @@
       <c r="U19" s="1">
         <v>100014</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>156</v>
+      <c r="V19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="X19" s="17" t="s">
-        <v>192</v>
+        <v>196</v>
+      </c>
+      <c r="Y19">
+        <v>106</v>
+      </c>
+      <c r="Z19">
+        <v>20001</v>
+      </c>
+      <c r="AA19">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -2818,7 +2856,7 @@
         <v>97</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H20">
         <v>100016</v>
@@ -2827,25 +2865,25 @@
         <v>101016</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M20" s="1">
         <v>4</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="1">
         <v>3</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T20" s="2">
         <v>6021</v>
@@ -2854,79 +2892,62 @@
         <v>100017</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Y20">
-        <v>60001</v>
+        <v>204</v>
       </c>
       <c r="Z20">
         <v>20001</v>
       </c>
       <c r="AA20">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="C21" s="1">
         <v>-1</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="H21">
-        <v>100017</v>
+        <v>100018</v>
       </c>
       <c r="I21" s="1">
-        <v>101017</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>127</v>
+        <v>101018</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>18</v>
-      </c>
-      <c r="T21" s="1">
-        <v>120005</v>
-      </c>
-      <c r="U21" s="2">
-        <v>100015</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="X21" s="16">
-        <v>10016</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="X21" s="16"/>
       <c r="Y21">
         <v>60001</v>
       </c>
@@ -2939,7 +2960,7 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>10018</v>
+        <v>10015</v>
       </c>
       <c r="C22" s="1">
         <v>-1</v>
@@ -2948,112 +2969,165 @@
         <v>1</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="H22">
-        <v>100018</v>
+        <v>100015</v>
       </c>
       <c r="I22" s="1">
-        <v>101018</v>
-      </c>
+        <v>101015</v>
+      </c>
+      <c r="J22" s="11"/>
       <c r="L22" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>130</v>
+        <v>156</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="11">
+        <v>39</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X22" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="X22" s="17"/>
       <c r="Y22">
-        <v>60001</v>
+        <v>203</v>
       </c>
       <c r="Z22">
         <v>20001</v>
       </c>
       <c r="AA22">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>10015</v>
+        <v>10017</v>
       </c>
       <c r="C23" s="1">
         <v>-1</v>
       </c>
       <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23">
+        <v>100017</v>
+      </c>
+      <c r="I23" s="1">
+        <v>101017</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23">
+      <c r="N23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>18</v>
+      </c>
+      <c r="T23" s="1">
+        <v>120005</v>
+      </c>
+      <c r="U23" s="2">
         <v>100015</v>
       </c>
-      <c r="I23" s="1">
-        <v>101015</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="L23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M23" s="1">
-        <v>5</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>3</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="11">
-        <v>39</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>191</v>
+      <c r="V23" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="X23" s="17"/>
+        <v>194</v>
+      </c>
+      <c r="X23" s="16">
+        <v>10016</v>
+      </c>
       <c r="Y23">
-        <v>60001</v>
+        <v>202</v>
       </c>
       <c r="Z23">
         <v>20001</v>
       </c>
       <c r="AA23">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26"/>
-      <c r="L26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="P26" s="15"/>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>10020</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24">
+        <v>100020</v>
+      </c>
+      <c r="I24" s="1">
+        <v>101020</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y24">
+        <v>106</v>
+      </c>
+      <c r="Z24">
+        <v>20001</v>
+      </c>
+      <c r="AA24">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:AD4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/tables/element_mod.xlsx
+++ b/tables/element_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1243F9AA-E386-4F43-B714-4769DA4F4637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC24BFA-5A65-4877-8894-396A21C7AE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="203">
   <si>
     <t>##type</t>
   </si>
@@ -1014,10 +1014,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6,1|5,1|4,1|3,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionSmallRotateSumTire</t>
   </si>
   <si>
@@ -1092,6 +1088,14 @@
   </si>
   <si>
     <t>element_17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|3|3|3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,2|5,2|4,2|3,2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1536,7 +1540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X33" sqref="X33"/>
+      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1951,7 +1955,7 @@
         <v>136</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="X5" s="16"/>
       <c r="Y5">
@@ -1999,10 +2003,10 @@
         <v>155</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6" s="2">
         <v>6011</v>
@@ -2014,7 +2018,7 @@
         <v>137</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="X6" s="16"/>
       <c r="Y6">
@@ -2134,10 +2138,10 @@
         <v>100016</v>
       </c>
       <c r="V8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="X8" s="16"/>
       <c r="Y8">
@@ -2797,7 +2801,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H19">
         <v>100019</v>
@@ -2815,7 +2819,7 @@
         <v>156</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="1">
         <v>1</v>
@@ -2824,13 +2828,13 @@
         <v>100014</v>
       </c>
       <c r="V19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="W19" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="W19" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="X19" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y19">
         <v>106</v>
@@ -2856,7 +2860,7 @@
         <v>97</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H20">
         <v>100016</v>
@@ -2892,13 +2896,13 @@
         <v>100017</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y20">
         <v>204</v>
@@ -2991,20 +2995,20 @@
         <v>156</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="11">
         <v>39</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>145</v>
@@ -3046,7 +3050,7 @@
         <v>125</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -3070,7 +3074,7 @@
         <v>153</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X23" s="16">
         <v>10016</v>
@@ -3096,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
         <v>190</v>
-      </c>
-      <c r="G24" t="s">
-        <v>191</v>
       </c>
       <c r="H24">
         <v>100020</v>
@@ -3108,7 +3112,7 @@
         <v>101020</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M24" s="1">
         <v>3</v>
@@ -3117,7 +3121,7 @@
         <v>156</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y24">
         <v>106</v>

--- a/tables/element_mod.xlsx
+++ b/tables/element_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\rhmod\rh-wlj-mod\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC24BFA-5A65-4877-8894-396A21C7AE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C6C7B3-FF7C-43DD-BDAB-088A3B795495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,10 +1035,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位攻击&lt;color=#008E11&gt;+{1}&lt;/color&gt;，并死亡变为残躯。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>13,2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1063,10 +1059,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12,1|12,2|12,3|12,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>10020</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1096,6 +1088,14 @@
   </si>
   <si>
     <t>6,2|5,2|4,2|3,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每消耗&lt;color=#008E11&gt;{0}&lt;/color&gt;金币，使所有单位获得等同于自身的攻击，并死亡变为残躯。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10|10|10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1538,9 +1538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomLeft" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1955,7 @@
         <v>136</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X5" s="16"/>
       <c r="Y5">
@@ -2018,7 +2018,7 @@
         <v>137</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X6" s="16"/>
       <c r="Y6">
@@ -2801,7 +2801,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H19">
         <v>100019</v>
@@ -2819,7 +2819,7 @@
         <v>156</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="1">
         <v>1</v>
@@ -2828,13 +2828,13 @@
         <v>100014</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X19" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y19">
         <v>106</v>
@@ -2860,7 +2860,7 @@
         <v>97</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H20">
         <v>100016</v>
@@ -2881,7 +2881,7 @@
         <v>156</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="1">
         <v>3</v>
@@ -2899,7 +2899,7 @@
         <v>183</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="X20" s="17" t="s">
         <v>186</v>
@@ -2995,7 +2995,7 @@
         <v>156</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
@@ -3050,7 +3050,7 @@
         <v>125</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>153</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X23" s="16">
         <v>10016</v>
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
         <v>189</v>
-      </c>
-      <c r="G24" t="s">
-        <v>190</v>
       </c>
       <c r="H24">
         <v>100020</v>
@@ -3112,7 +3112,7 @@
         <v>101020</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M24" s="1">
         <v>3</v>
@@ -3121,7 +3121,7 @@
         <v>156</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Y24">
         <v>106</v>
